--- a/Örnek 21 - Yüzdeli Not Hesabı.xlsx
+++ b/Örnek 21 - Yüzdeli Not Hesabı.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kagan\Desktop\OneDrive_2018-12-18\Excel Uygulama\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/88a89685dae84bb8/Masaüstü/excel ödevi 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{635ABE48-99D2-40BC-B2DF-B6FF392B98D3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F03DFFF2-4BBB-4F26-ABE0-55EC58E8C324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9480" tabRatio="698"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="698" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="7-not" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Adı</t>
   </si>
@@ -56,13 +59,22 @@
   </si>
   <si>
     <t>Bölüm:</t>
+  </si>
+  <si>
+    <t>KÜBRA ÇABUK</t>
+  </si>
+  <si>
+    <t>YBS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Tur"/>
@@ -128,6 +140,11 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Arial Tur"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial Tur"/>
       <charset val="162"/>
     </font>
@@ -164,7 +181,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -354,19 +371,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -404,10 +408,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -448,36 +453,34 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="5" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Virgül" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -754,12 +757,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -803,7 +806,10 @@
       <c r="E3" s="14">
         <v>60</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="7">
+        <f>C3*0.2+D3*0.2+E3*0.6</f>
+        <v>69</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="2:11" ht="33.75" x14ac:dyDescent="0.5">
@@ -817,14 +823,19 @@
       <c r="E4" s="14">
         <v>54</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="7">
+        <f t="shared" ref="F4:F9" si="0">C4*0.2+D4*0.2+E4*0.6</f>
+        <v>48.4</v>
+      </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
+      <c r="I4" s="20">
+        <v>20215070019</v>
+      </c>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
     </row>
     <row r="5" spans="2:11" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B5" s="8"/>
@@ -837,14 +848,19 @@
       <c r="E5" s="14">
         <v>85</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="7">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
+      <c r="I5" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
     </row>
     <row r="6" spans="2:11" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B6" s="8"/>
@@ -857,14 +873,19 @@
       <c r="E6" s="14">
         <v>74</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="7">
+        <f t="shared" si="0"/>
+        <v>64.400000000000006</v>
+      </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
+      <c r="I6" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
     </row>
     <row r="7" spans="2:11" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B7" s="8"/>
@@ -877,7 +898,10 @@
       <c r="E7" s="14">
         <v>56</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="7">
+        <f t="shared" si="0"/>
+        <v>53.6</v>
+      </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="2:11" ht="33.75" x14ac:dyDescent="0.5">
@@ -891,7 +915,10 @@
       <c r="E8" s="14">
         <v>23</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="7">
+        <f t="shared" si="0"/>
+        <v>35.799999999999997</v>
+      </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="2:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -905,27 +932,33 @@
       <c r="E9" s="15">
         <v>98</v>
       </c>
-      <c r="F9" s="16"/>
+      <c r="F9" s="7">
+        <f t="shared" si="0"/>
+        <v>80.8</v>
+      </c>
       <c r="G9" s="1"/>
     </row>
     <row r="11" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="2:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="20"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="19"/>
     </row>
     <row r="13" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="2:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="21"/>
+      <c r="C14" s="21">
+        <f>AVERAGE(F3:F9)</f>
+        <v>58.857142857142868</v>
+      </c>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
       <c r="F14" s="23"/>
